--- a/script/报备导入测试数据5条.xlsx
+++ b/script/报备导入测试数据5条.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -504,42 +504,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>441401198805105916</t>
+          <t>360400200008100488</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14578166859</t>
+          <t>15380161054</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44733.75210648148</v>
+        <v>44747.12618055556</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>蓝秀珍</t>
+          <t>杨刚</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>仇洪伟</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上线前最后的供应商1126</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -549,25 +549,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>652801199112173234</t>
+          <t>430111199206053438</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13682689910</t>
+          <t>13971290478</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44734.16396990741</v>
+        <v>44747.30810185185</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>吴彬</t>
+          <t>罗桂珍</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -579,17 +579,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>管小芳</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>自主招聘</t>
+          <t>供应商</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>测试11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -599,37 +599,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>130982199705161474</t>
+          <t>360825200010198102</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14751382098</t>
+          <t>14530587004</t>
         </is>
       </c>
       <c r="H4" s="1" t="n">
-        <v>44734.15959490741</v>
+        <v>44746.8290625</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>张莹</t>
+          <t>吕畅</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,52 +644,52 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>劳动合同</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>230302200108043992</t>
+          <t>340811198801283811</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15386714211</t>
+          <t>15305672941</t>
         </is>
       </c>
       <c r="H5" s="1" t="n">
-        <v>44734.25678240741</v>
+        <v>44747.02958333334</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>程红梅</t>
+          <t>张雪</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>李勇</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>供应商</t>
+          <t>院校</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>测试11</t>
+          <t>院校12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -704,20 +704,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>410523199211016926</t>
+          <t>150000199802178358</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13631969713</t>
+          <t>18533737063</t>
         </is>
       </c>
       <c r="H6" s="1" t="n">
-        <v>44734.31748842593</v>
+        <v>44747.43423611111</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>卢凯</t>
+          <t>伍莹</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
